--- a/Analisis estatico/LearningByAnsDijkstra.xlsx
+++ b/Analisis estatico/LearningByAnsDijkstra.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Cosas_clase\Septimo cuatrimestre 4º\VV\Practica 2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4EDFDE-A720-4BAC-ABF4-D5239563F0EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>//Adjacency matrix</t>
   </si>
@@ -680,12 +674,21 @@
 corto para grafos simples y sin valores negativos
 </t>
   </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descripción del comentario</t>
+  </si>
+  <si>
+    <t>Lo que el código hace</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,8 +725,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,8 +756,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -769,14 +785,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -795,9 +827,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +892,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -893,7 +927,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1070,203 +1104,214 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="77.140625" customWidth="1"/>
+    <col min="1" max="1" width="77.109375" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" ht="28.8">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" ht="89.25" customHeight="1">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" ht="86.4">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="152.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:3" ht="144">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:3" ht="78" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" ht="72">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:3" ht="318.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:3" ht="302.39999999999998">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:3" ht="216">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" ht="201.6">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="331.2">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" ht="244.8">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:3" ht="115.2">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
